--- a/Foundation/org.egovframe.rte.fdl.excel/testdata/template/template1.xlsx
+++ b/Foundation/org.egovframe.rte.fdl.excel/testdata/template/template1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Weekly Timesheet</t>
   </si>
@@ -51,49 +51,13 @@
   </si>
   <si>
     <t>Total Hrs:</t>
-  </si>
-  <si>
-    <t>${persons.name}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${persons.id}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${persons.mon}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${persons.tue}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${persons.wed}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${persons.thu}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${persons.fri}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${persons.sat}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${persons.sun}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -120,8 +84,59 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +158,19 @@
         <fgColor indexed="23"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -167,39 +193,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="㼿" xfId="1"/>
+    <cellStyle name="㼿?" xfId="2"/>
+    <cellStyle name="㼿㼿" xfId="3"/>
+    <cellStyle name="㼿㼿?" xfId="4"/>
+    <cellStyle name="㼿㼿㼿" xfId="5"/>
+    <cellStyle name="㼿㼿㼿㼿㼿" xfId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,10 +573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,18 +586,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -560,71 +631,191 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J12" si="0">SUM(C3:I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ref="C4:J4" si="0">SUM(C3:C3)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:J13" si="1">SUM(C3:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
